--- a/Recursos/Semana 08/clases_camion.xlsx
+++ b/Recursos/Semana 08/clases_camion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Packing</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>pesoCaja</t>
+  </si>
+  <si>
+    <t>toString()</t>
   </si>
 </sst>
 </file>
@@ -688,7 +691,7 @@
   <dimension ref="D1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +719,9 @@
       </c>
     </row>
     <row r="5" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="2"/>
+      <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F6" s="2"/>
@@ -797,7 +802,16 @@
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="11:11" x14ac:dyDescent="0.25">
